--- a/REGULAR/OJT/NEW DONE/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DE OCAMPO, MARISSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="394">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1630,6 +1630,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,9 +1668,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4033,9 +4033,9 @@
   <dimension ref="A2:K577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A557" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A566" activePane="bottomLeft"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="H574" sqref="H574"/>
+      <selection pane="bottomLeft" activeCell="B577" sqref="B577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,62 +4057,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4138,18 +4138,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.204999999999842</v>
+        <v>95.454999999999842</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4206,7 +4206,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>126.25300000000001</v>
+        <v>127.50300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="68">
+      <c r="K566" s="56">
         <v>44789</v>
       </c>
     </row>
@@ -16528,7 +16528,7 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="68">
+      <c r="K569" s="56">
         <v>44886</v>
       </c>
     </row>
@@ -16645,28 +16645,40 @@
         <f t="shared" si="29"/>
         <v>45017</v>
       </c>
-      <c r="B575" s="20"/>
-      <c r="C575" s="13"/>
-      <c r="D575" s="39"/>
+      <c r="B575" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C575" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D575" s="39">
+        <v>1</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G575" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="56">
+        <v>45044</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f t="shared" si="29"/>
         <v>45047</v>
       </c>
-      <c r="B576" s="20"/>
+      <c r="B576" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C576" s="13"/>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>1</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13" t="str">
@@ -16676,7 +16688,9 @@
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
+      <c r="K576" s="56">
+        <v>45055</v>
+      </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
@@ -16761,17 +16775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -16856,12 +16870,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DE OCAMPO, MARISSA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="395">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1224,6 +1224,9 @@
   </si>
   <si>
     <t>2/22HD,23/2023</t>
+  </si>
+  <si>
+    <t>5/25, 31/2023</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2120,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2163,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2227,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2287,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2353,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2416,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2514,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2573,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2638,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2681,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2756,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2942,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3008,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3066,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3132,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3188,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3263,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3306,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3372,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3428,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,7 +3526,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,7 +3589,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3655,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K577" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K578" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4030,12 +4033,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K577"/>
+  <dimension ref="A2:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2520" topLeftCell="A566" activePane="bottomLeft"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="B577" sqref="B577"/>
+      <selection pane="bottomLeft" activeCell="E578" sqref="E578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,7 +4199,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.454999999999842</v>
+        <v>96.704999999999842</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4206,7 +4209,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.50300000000001</v>
+        <v>126.75300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16459,7 +16462,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <f t="shared" ref="A567:A577" si="29">EDATE(A566,1)</f>
+        <f t="shared" ref="A567:A576" si="29">EDATE(A566,1)</f>
         <v>44805</v>
       </c>
       <c r="B567" s="15" t="s">
@@ -16675,15 +16678,17 @@
       <c r="B576" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C576" s="13"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D576" s="39">
         <v>1</v>
       </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
@@ -16693,11 +16698,10 @@
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <f t="shared" si="29"/>
-        <v>45078</v>
-      </c>
-      <c r="B577" s="20"/>
+      <c r="A577" s="40"/>
+      <c r="B577" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
@@ -16706,10 +16710,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H577" s="39"/>
+      <c r="H577" s="39">
+        <v>2</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" s="40">
+        <f>EDATE(A576,1)</f>
+        <v>45078</v>
+      </c>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
